--- a/code/数据库设计/数据字典.xlsx
+++ b/code/数据库设计/数据字典.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FD79F0-CFBE-4179-A321-543AB3C1CBF1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="City类" sheetId="1" r:id="rId1"/>
@@ -16,7 +15,7 @@
     <sheet name="Time" sheetId="6" r:id="rId6"/>
     <sheet name="Player" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -586,7 +585,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -954,23 +953,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
@@ -980,7 +979,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -988,7 +987,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1008,7 +1007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -1026,7 +1025,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1044,7 +1043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -1060,7 +1059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>78</v>
       </c>
@@ -1074,7 +1073,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>77</v>
       </c>
@@ -1088,7 +1087,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>79</v>
       </c>
@@ -1099,7 +1098,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>80</v>
       </c>
@@ -1110,7 +1109,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1126,7 +1125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -1142,7 +1141,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
@@ -1159,47 +1158,47 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N28">
         <f ca="1">+N28:PN28:Q41</f>
         <v>0</v>
@@ -1216,22 +1215,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54212BC6-248F-4653-8956-F8055929FE18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -1241,7 +1240,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1249,7 +1248,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1269,7 +1268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
@@ -1287,7 +1286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
@@ -1305,7 +1304,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>67</v>
       </c>
@@ -1321,7 +1320,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -1339,7 +1338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
@@ -1355,7 +1354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -1371,7 +1370,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
@@ -1387,7 +1386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>53</v>
       </c>
@@ -1403,7 +1402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>54</v>
       </c>
@@ -1419,7 +1418,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>55</v>
       </c>
@@ -1435,7 +1434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>56</v>
       </c>
@@ -1452,7 +1451,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>59</v>
       </c>
@@ -1466,47 +1465,47 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>70</v>
       </c>
@@ -1522,21 +1521,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255729F9-6827-43CB-9373-D4024E6736E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.125" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>61</v>
       </c>
@@ -1546,7 +1545,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1554,7 +1553,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1574,7 +1573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1592,7 +1591,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -1610,7 +1609,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -1628,7 +1627,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -1645,22 +1644,22 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>65</v>
       </c>
@@ -1675,22 +1674,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67CF079-2E31-4262-93B3-74A755D02DC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>93</v>
       </c>
@@ -1700,7 +1699,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1708,7 +1707,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1728,7 +1727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -1745,7 +1744,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -1759,7 +1758,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>100</v>
       </c>
@@ -1776,7 +1775,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -1793,7 +1792,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -1810,7 +1809,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -1821,7 +1820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -1832,7 +1831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -1840,32 +1839,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>126</v>
       </c>
@@ -1880,20 +1879,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC69D5B-3E04-4120-9B49-B7BF2A727E34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="A1:F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
@@ -1903,7 +1904,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1911,7 +1912,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1931,7 +1932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -1939,7 +1940,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -1947,7 +1948,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -1958,7 +1959,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -1969,7 +1970,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -1980,7 +1981,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -1988,12 +1989,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>128</v>
       </c>
@@ -2008,19 +2009,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE49F6B-A2AD-440B-9F23-E35B881452E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>130</v>
       </c>
@@ -2030,7 +2032,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2038,7 +2040,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2058,7 +2060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -2069,7 +2071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>132</v>
       </c>
@@ -2080,12 +2082,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>134</v>
       </c>
@@ -2100,19 +2102,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49627384-C96C-448A-863E-3DDC873301A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>135</v>
       </c>
@@ -2122,7 +2124,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2130,7 +2132,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2150,12 +2152,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>137</v>
       </c>

--- a/code/数据库设计/数据字典.xlsx
+++ b/code/数据库设计/数据字典.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FD79F0-CFBE-4179-A321-543AB3C1CBF1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E04359E-71DA-414B-AFF6-AB60808DC6B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="City类" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="132">
   <si>
     <t>数据名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -112,10 +112,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>武将所属势力ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>武将统帅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -132,10 +128,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>武将魅力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>武将忠诚</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -228,10 +220,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>person_BelongFactionID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>person_Military</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -248,10 +236,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>person_Charm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>person_Loyal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -329,14 +313,6 @@
   </si>
   <si>
     <t>计策改变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>魅力改变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>势力更改</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -625,7 +601,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -648,17 +624,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -666,10 +631,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -958,35 +922,36 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C27" sqref="C27:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1010,7 +975,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1028,7 +993,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -1046,7 +1011,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -1062,7 +1027,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -1071,12 +1036,12 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>77</v>
+      <c r="A8" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -1085,34 +1050,40 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>79</v>
+      <c r="A9" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>83</v>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>80</v>
+      <c r="A10" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>84</v>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -1128,7 +1099,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -1143,63 +1114,64 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>32</v>
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N28">
         <f ca="1">+N28:PN28:Q41</f>
         <v>0</v>
@@ -1217,37 +1189,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54212BC6-248F-4653-8956-F8055929FE18}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1271,7 +1243,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1289,7 +1261,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -1307,7 +1279,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -1318,30 +1290,28 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -1357,7 +1327,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -1372,8 +1342,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>52</v>
+      <c r="A10" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -1388,15 +1358,15 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>53</v>
+      <c r="A11" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
@@ -1404,111 +1374,72 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>54</v>
+      <c r="A12" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F12" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="2" t="s">
-        <v>17</v>
+      <c r="D13" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1526,7 +1457,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1537,22 +1468,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="A1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1576,7 +1507,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1589,12 +1520,12 @@
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -1607,12 +1538,12 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -1625,44 +1556,45 @@
         <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>40</v>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>62</v>
+      <c r="A9" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>63</v>
+      <c r="A10" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>64</v>
+      <c r="A11" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>65</v>
+      <c r="A12" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1679,34 +1611,35 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F3"/>
+      <selection activeCell="A13" sqref="A13:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="A1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1729,145 +1662,161 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F4" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
+      <c r="A11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>121</v>
+      <c r="A13" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>122</v>
+      <c r="A14" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>123</v>
+      <c r="A15" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>126</v>
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1884,32 +1833,35 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="A1:F3"/>
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="A1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1932,70 +1884,91 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F5" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" t="s">
-        <v>129</v>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>127</v>
+      <c r="A11" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>128</v>
+      <c r="A12" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2012,31 +1985,34 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="1" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="A1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2059,35 +2035,41 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>133</v>
+      <c r="A7" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>134</v>
+      <c r="A8" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2103,32 +2085,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49627384-C96C-448A-863E-3DDC873301A4}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="A1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2151,14 +2137,24 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>136</v>
-      </c>
+      <c r="A4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>137</v>
-      </c>
+      <c r="A5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/code/数据库设计/数据字典.xlsx
+++ b/code/数据库设计/数据字典.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E04359E-71DA-414B-AFF6-AB60808DC6B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="City类" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
     <sheet name="Time" sheetId="6" r:id="rId6"/>
     <sheet name="Player" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="132">
   <si>
     <t>数据名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -111,10 +112,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>武将所属势力ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>武将统帅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -131,10 +128,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>武将魅力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>武将忠诚</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -227,10 +220,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>person_BelongFactionID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>person_Military</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -247,10 +236,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>person_Charm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>person_Loyal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -328,14 +313,6 @@
   </si>
   <si>
     <t>计策改变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>魅力改变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>势力更改</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -585,7 +562,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -624,7 +601,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -647,17 +624,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -665,10 +631,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -953,41 +918,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C27" sqref="C27:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="18.75" customWidth="1"/>
-    <col min="6" max="6" width="23.625" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1007,9 +973,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1025,9 +991,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -1043,9 +1009,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -1059,9 +1025,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -1070,12 +1036,12 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -1084,34 +1050,40 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>80</v>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -1125,9 +1097,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -1141,64 +1113,65 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N28">
         <f ca="1">+N28:PN28:Q41</f>
         <v>0</v>
@@ -1215,40 +1188,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54212BC6-248F-4653-8956-F8055929FE18}">
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F15"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1268,9 +1241,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1286,9 +1259,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -1304,9 +1277,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -1317,30 +1290,28 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -1354,9 +1325,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -1370,9 +1341,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>52</v>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -1386,128 +1357,89 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>53</v>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>54</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="2" t="s">
-        <v>17</v>
+      <c r="D13" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1521,39 +1453,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255729F9-6827-43CB-9373-D4024E6736E7}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.125" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1573,9 +1505,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1588,12 +1520,12 @@
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -1606,12 +1538,12 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -1624,44 +1556,45 @@
         <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>65</v>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1674,40 +1607,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67CF079-2E31-4262-93B3-74A755D02DC5}">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A13" sqref="A13:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1727,146 +1661,162 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>126</v>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1879,40 +1829,41 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC69D5B-3E04-4120-9B49-B7BF2A727E34}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1932,71 +1883,92 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F5" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>128</v>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2009,38 +1981,40 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE49F6B-A2AD-440B-9F23-E35B881452E4}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2060,36 +2034,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>134</v>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2102,37 +2082,41 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49627384-C96C-448A-863E-3DDC873301A4}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2152,15 +2136,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>137</v>
-      </c>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/code/数据库设计/数据字典.xlsx
+++ b/code/数据库设计/数据字典.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E04359E-71DA-414B-AFF6-AB60808DC6B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF97384-AA71-471C-843F-CC73B6DC3F3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="City类" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="130">
   <si>
     <t>数据名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -452,14 +452,6 @@
   </si>
   <si>
     <t>Battle_Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属势力ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属势力的ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1608,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67CF079-2E31-4262-93B3-74A755D02DC5}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1681,41 +1673,43 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -1728,30 +1722,26 @@
         <v>93</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>100</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -1765,58 +1755,44 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1832,7 +1808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC69D5B-3E04-4120-9B49-B7BF2A727E34}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
@@ -1909,7 +1885,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1918,12 +1894,12 @@
         <v>93</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1932,12 +1908,12 @@
         <v>93</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1946,29 +1922,29 @@
         <v>93</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1998,7 +1974,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2036,7 +2012,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -2050,7 +2026,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -2064,12 +2040,12 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2085,7 +2061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49627384-C96C-448A-863E-3DDC873301A4}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -2100,7 +2076,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2138,7 +2114,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2148,7 +2124,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>

--- a/code/数据库设计/数据字典.xlsx
+++ b/code/数据库设计/数据字典.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF97384-AA71-471C-843F-CC73B6DC3F3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1858110A-E76D-4892-9078-CAB9B8049DB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="City类" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="130">
   <si>
     <t>数据名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -913,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1603,7 +1603,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D9" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1761,7 +1761,9 @@
         <v>6</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
@@ -1808,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC69D5B-3E04-4120-9B49-B7BF2A727E34}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/code/数据库设计/数据字典.xlsx
+++ b/code/数据库设计/数据字典.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1858110A-E76D-4892-9078-CAB9B8049DB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D315891-E024-471D-8E73-49A9821F4DE7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="City类" sheetId="1" r:id="rId1"/>
-    <sheet name="Person类" sheetId="2" r:id="rId2"/>
-    <sheet name="Faction表" sheetId="3" r:id="rId3"/>
+    <sheet name="City" sheetId="1" r:id="rId1"/>
+    <sheet name="Person" sheetId="2" r:id="rId2"/>
+    <sheet name="Faction" sheetId="3" r:id="rId3"/>
     <sheet name="Army" sheetId="4" r:id="rId4"/>
     <sheet name="Battle" sheetId="5" r:id="rId5"/>
     <sheet name="Time" sheetId="6" r:id="rId6"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="127">
   <si>
     <t>数据名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -160,10 +160,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Faction_Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>势力的唯一非空ID号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -176,14 +172,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Faction_LeaderPersonID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Faction_CapitalID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>势力首都城池ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -192,58 +180,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>city_BelongFactionID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>city_Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>city_Food</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>city_Loyal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>city_Soldiers</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>personID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>person_Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>person_Military</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>person_Command</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>person_Politics</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>person_Trick</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>person_Loyal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>person_CityID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>否</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -252,10 +192,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>person_State</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>武将状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -264,30 +200,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>势力改名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>势力主公更改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>势力首都更改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>势力覆灭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>武将出生年份</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>person_BirthYear</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>忠诚改变</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -316,22 +232,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>city_Money</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>city_Farm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>city_Bussiness</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>city_Defense</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>城池农业（每年秋季收获）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -384,18 +284,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>士兵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>粮草</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>可</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -408,22 +296,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>主将ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副将1ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副将2ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>部队ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>本次部队的ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -451,26 +323,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Battle_Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battle_AttackArmyID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battle_DefendArmyID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>战场所在城池ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Battle_FieldCityID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>进攻方军队ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -479,10 +335,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Battle_Result</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>主将修改</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -523,14 +375,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>年份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>季节</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>季节变换</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -547,7 +391,151 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Player_MaxScore</t>
+    <t>cityName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityFood</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityFarm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityMoney</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityBussiness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityDefense</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityLoyal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityBelongFactionID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personBirthYear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personCommand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personMilitary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personPolitics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personTrick</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personLoyal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personCityID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personState</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FactionName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FactionLeaderPersonID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FactionCapitalID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armyID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armyMainID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armyAssisiant1ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armyAssisiant2ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armySoldier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>citySoldier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armyFood</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armyMoney</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleAttackArmyID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleDefendArmyID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleFieldCityID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleResult</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>season</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1为春，2为夏，3为秋，4为冬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerMaxScore</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -913,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -967,7 +955,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -985,7 +973,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -1003,7 +991,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -1019,7 +1007,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -1028,12 +1016,12 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -1042,12 +1030,12 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -1056,12 +1044,12 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -1070,12 +1058,12 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -1091,7 +1079,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -1107,7 +1095,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
@@ -1125,42 +1113,42 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -1184,7 +1172,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D15" sqref="D15:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1235,7 +1223,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1253,7 +1241,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -1271,7 +1259,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -1282,12 +1270,12 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -1303,7 +1291,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -1319,7 +1307,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -1335,7 +1323,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -1351,7 +1339,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
@@ -1367,71 +1355,71 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1446,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255729F9-6827-43CB-9373-D4024E6736E7}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G15" sqref="A9:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1461,7 +1449,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1512,12 +1500,12 @@
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -1530,12 +1518,12 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -1548,12 +1536,12 @@
         <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -1566,27 +1554,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1603,12 +1571,12 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D10"/>
+      <selection activeCell="H28" sqref="A19:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
@@ -1617,7 +1585,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1655,7 +1623,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1665,15 +1633,15 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -1683,51 +1651,51 @@
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -1741,7 +1709,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -1755,7 +1723,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -1769,32 +1737,32 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1811,7 +1779,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="A4" sqref="A4:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1825,7 +1793,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1863,90 +1831,90 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +1931,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A8"/>
+      <selection activeCell="E23" sqref="E23:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1971,12 +1939,12 @@
     <col min="1" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2014,7 +1982,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -2028,26 +1996,28 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2063,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49627384-C96C-448A-863E-3DDC873301A4}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2078,7 +2048,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2116,7 +2086,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2126,7 +2096,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>

--- a/code/数据库设计/数据字典.xlsx
+++ b/code/数据库设计/数据字典.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D315891-E024-471D-8E73-49A9821F4DE7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="City" sheetId="1" r:id="rId1"/>
@@ -16,7 +15,7 @@
     <sheet name="Time" sheetId="6" r:id="rId6"/>
     <sheet name="Player" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="150">
   <si>
     <t>数据名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -168,162 +167,450 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>cityID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武将所在城池</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武将状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Faction表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武将出生年份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忠诚改变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在城池改变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城池农业（每年秋季收获）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城池金钱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城池商业（每季度收获）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城防水平</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>粮草改变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业改变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱改变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业改变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城防改变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>士兵数改变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>民忠改变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属势力改变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Army表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次部队的ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主将的ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副将的ID</t>
+  </si>
+  <si>
+    <t>副将的ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战役名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场所在城池ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御方军队ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主将修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副将1修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副将2修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>士兵修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>粮草修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战役名称生成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战役结果生成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战役结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>季节变换</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年快乐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palyer表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityFood</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityFarm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityMoney</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityBussiness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityDefense</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityLoyal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityBelongFactionID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personBirthYear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personCommand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personMilitary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personPolitics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personTrick</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personLoyal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personCityID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personState</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FactionName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FactionLeaderPersonID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FactionCapitalID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armyID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armyMainID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armyAssisiant1ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armyAssisiant2ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armySoldier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>citySoldier</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armyFood</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armyMoney</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleDefendArmyID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleResult</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1为春，2为夏，3为秋，4为冬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerMaxScore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personChangeLoyal(int number);</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态改变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityChangeFood(int number)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityChangeFarm(int number)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityChangeMoney(int number)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityChangeBusiness(int number)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityChangeSoldier(int number)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityChangeDefense(int number)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityChangeLoyal(int number)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityChangeBelongFactionID(int number)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>势力主公武将ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>势力主公武将更换</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>势力首都城池ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cityID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武将所在城池</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武将状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Faction表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武将出生年份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>忠诚改变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在城池改变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态改变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>统帅改变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武力改变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>政治改变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计策改变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>城池农业（每年秋季收获）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>城池金钱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>城池商业（每季度收获）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>城防水平</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>粮草改变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业改变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钱改变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业改变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>城防改变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>士兵数改变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>民忠改变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属势力改变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Army表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>外</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本次部队的ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主将的ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副将的ID</t>
-  </si>
-  <si>
-    <t>副将的ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battle表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BattleID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战役名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战场所在城池ID</t>
+    <t>势力首都城池更换</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FactionChangeLeaderPersonID(int number)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FactionChangeCapitalID(int number)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armyChangeMainID(int number)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armyChangeAssisiant1ID(int number)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armyChangeAssisiant2ID(int number)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armyChangeSoldier(int number)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armyChangeFood(int number)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armyChangeMoney(int number)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>season</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerChangeMaxScore(int number)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeSeasonChange(String season)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeYearChange(String year)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonChangeCityID(int cityID)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personChangeState(string state)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleNameGeneration(BattleFieldCityID)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -331,218 +618,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>防御方军队ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主将修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副将1修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副将2修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>士兵修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>粮草修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钱修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战役名称生成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战役结果生成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战役结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>季节变换</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新年快乐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Palyer表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cityName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cityFood</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cityFarm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cityMoney</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cityBussiness</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cityDefense</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cityLoyal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cityBelongFactionID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personBirthYear</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personCommand</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personMilitary</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personPolitics</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personTrick</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personLoyal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personCityID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personState</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FactionName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FactionLeaderPersonID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FactionCapitalID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>armyID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>armyMainID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>armyAssisiant1ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>armyAssisiant2ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>armySoldier</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>citySoldier</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>armyFood</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>armyMoney</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BattleName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BattleAttackArmyID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BattleDefendArmyID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BattleFieldCityID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BattleResult</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>season</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>year</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1为春，2为夏，3为秋，4为冬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerMaxScore</t>
+    <t>BattleResultGeneration(int BattleAttackArmyID,int BattleDefendArmyID,int BattleFieldCityID)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -898,24 +989,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A13"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -925,7 +1016,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -933,7 +1024,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -953,9 +1044,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -971,9 +1062,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -989,9 +1080,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -1005,9 +1096,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -1016,12 +1107,12 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -1030,12 +1121,12 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -1044,12 +1135,12 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -1058,12 +1149,12 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -1077,9 +1168,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -1093,9 +1184,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
@@ -1111,47 +1202,71 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="N28">
         <f ca="1">+N28:PN28:Q41</f>
         <v>0</v>
@@ -1168,22 +1283,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54212BC6-248F-4653-8956-F8055929FE18}">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:M15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
@@ -1193,7 +1308,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1201,7 +1316,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1221,9 +1336,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1239,9 +1354,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -1257,9 +1372,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -1270,12 +1385,12 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -1289,9 +1404,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -1305,9 +1420,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -1321,9 +1436,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -1337,9 +1452,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
@@ -1353,73 +1468,62 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>45</v>
+        <v>118</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1433,23 +1537,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255729F9-6827-43CB-9373-D4024E6736E7}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="A9:G15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.125" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1457,7 +1561,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1465,7 +1569,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1485,7 +1589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1503,9 +1607,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -1521,9 +1625,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -1536,12 +1640,12 @@
         <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -1554,7 +1658,23 @@
         <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1567,25 +1687,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67CF079-2E31-4262-93B3-74A755D02DC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="A19:H28"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1593,7 +1713,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1601,7 +1721,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1621,9 +1741,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1633,15 +1753,15 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -1651,51 +1771,51 @@
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -1707,9 +1827,9 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -1721,9 +1841,9 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -1735,34 +1855,52 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>73</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1775,25 +1913,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC69D5B-3E04-4120-9B49-B7BF2A727E34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1801,7 +1939,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1809,7 +1947,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1829,92 +1967,98 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>75</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1927,24 +2071,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE49F6B-A2AD-440B-9F23-E35B881452E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:E24"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1952,7 +2096,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1960,7 +2104,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1980,9 +2124,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1994,9 +2138,9 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -2007,17 +2151,23 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>79</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2030,25 +2180,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49627384-C96C-448A-863E-3DDC873301A4}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2056,7 +2206,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2064,7 +2214,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2084,9 +2234,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2094,15 +2244,20 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/code/数据库设计/数据字典.xlsx
+++ b/code/数据库设计/数据字典.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F89BE96-9D6C-4F0A-A9F2-B724C2F49207}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="City" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
     <sheet name="Time" sheetId="6" r:id="rId6"/>
     <sheet name="Player" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="162">
   <si>
     <t>数据名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -494,10 +495,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>personChangeLoyal(int number);</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Text</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -506,34 +503,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cityChangeFood(int number)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cityChangeFarm(int number)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cityChangeMoney(int number)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cityChangeBusiness(int number)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cityChangeSoldier(int number)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cityChangeDefense(int number)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cityChangeLoyal(int number)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>cityChangeBelongFactionID(int number)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -554,26 +523,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FactionChangeLeaderPersonID(int number)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FactionChangeCapitalID(int number)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>armyChangeMainID(int number)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>armyChangeAssisiant1ID(int number)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>armyChangeAssisiant2ID(int number)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>armyChangeSoldier(int number)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -594,26 +543,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>timeSeasonChange(String season)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>timeYearChange(String year)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PersonChangeCityID(int cityID)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>personChangeState(string state)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BattleNameGeneration(BattleFieldCityID)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>进攻方军队ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -626,14 +559,129 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BattleResultGeneration(int BattleAttackArmyID,int BattleDefendArmyID,int BattleFieldCityID)</t>
+    <t>金钱减少（100-政治*智力），商业成功提升（政治+智力）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱减少（100-政治*智力），粮草减少（100-统帅-武力），民忠成功提升（武力+统帅+政治+智力）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityChangeFarm(person p)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityChangeFood()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityFood+=cityFarm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityChangeMoney()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityMoney+=cityBussiness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityChangeBusiness(person p)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityChangeDefense(person p)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityChangeSoldier(person p)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityChangeLoyal(person p)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱减少（100-统帅*武力），农业成功提升（统帅+武力）,状态变为“-1”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱减少（100-统帅*智力），城防成功提升（统帅+智力）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱减少当前忠诚*10，忠诚上升1点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonChangeCityID(city c)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personChangeLoyal();</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改变为c的cityID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FactionChangeLeaderPersonID(person p)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FactionChangeCapitalID(city c)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armyChangeMainID(persong p)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armyChangeAssisiant1ID(persong pa1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>armyChangeAssisiant2ID(persong pa2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeSeasonChange()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeYearChange()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御方势力名+城池名+之战</t>
+  </si>
+  <si>
+    <t>BattleNameGeneration()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleResultGeneration()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（ 主将（统帅*10+武力*8+智力*6）+副将1（统帅*8+武力*6+智力*4）+副将1（统帅*6+武力*4+智力*2） ）*兵力，比较，返回大的一方的军队ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -989,24 +1037,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -1016,7 +1064,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1024,7 +1072,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1044,7 +1092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -1062,7 +1110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
@@ -1080,7 +1128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
@@ -1096,7 +1144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>84</v>
       </c>
@@ -1110,7 +1158,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
@@ -1124,7 +1172,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>86</v>
       </c>
@@ -1138,7 +1186,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -1152,7 +1200,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>107</v>
       </c>
@@ -1168,7 +1216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>88</v>
       </c>
@@ -1184,7 +1232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>89</v>
       </c>
@@ -1202,71 +1250,95 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="F15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="F16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="F17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="F18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+      <c r="F19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="F20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="F21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="F22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N28">
         <f ca="1">+N28:PN28:Q41</f>
         <v>0</v>
@@ -1283,22 +1355,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
@@ -1308,7 +1380,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1316,7 +1388,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1336,7 +1408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -1354,7 +1426,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>90</v>
       </c>
@@ -1372,7 +1444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>91</v>
       </c>
@@ -1388,7 +1460,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>92</v>
       </c>
@@ -1404,7 +1476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>93</v>
       </c>
@@ -1420,7 +1492,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>94</v>
       </c>
@@ -1436,7 +1508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>95</v>
       </c>
@@ -1452,7 +1524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>96</v>
       </c>
@@ -1468,7 +1540,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>97</v>
       </c>
@@ -1486,12 +1558,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -1502,28 +1574,37 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1537,21 +1618,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.125" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -1561,7 +1642,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1569,7 +1650,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1589,7 +1670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1607,7 +1688,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>99</v>
       </c>
@@ -1625,7 +1706,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>100</v>
       </c>
@@ -1640,10 +1721,10 @@
         <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>101</v>
       </c>
@@ -1658,23 +1739,29 @@
         <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>132</v>
+        <v>151</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1687,23 +1774,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>55</v>
       </c>
@@ -1713,7 +1800,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1721,7 +1808,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1741,7 +1828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>102</v>
       </c>
@@ -1759,7 +1846,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>103</v>
       </c>
@@ -1777,7 +1864,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>104</v>
       </c>
@@ -1795,7 +1882,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>105</v>
       </c>
@@ -1813,7 +1900,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>106</v>
       </c>
@@ -1827,7 +1914,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>108</v>
       </c>
@@ -1841,7 +1928,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>109</v>
       </c>
@@ -1855,52 +1942,70 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="F12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>69</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="F13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>70</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>71</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="F15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>72</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="F16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>138</v>
+        <v>125</v>
+      </c>
+      <c r="F17" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1913,23 +2018,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>63</v>
       </c>
@@ -1939,7 +2044,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1947,7 +2052,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1967,7 +2072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
@@ -1979,7 +2084,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>110</v>
       </c>
@@ -1991,9 +2096,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2002,10 +2107,10 @@
         <v>58</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>111</v>
       </c>
@@ -2019,9 +2124,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2033,7 +2138,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>112</v>
       </c>
@@ -2045,20 +2150,26 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2071,22 +2182,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>77</v>
       </c>
@@ -2096,7 +2207,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2104,7 +2215,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2124,7 +2235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>113</v>
       </c>
@@ -2138,9 +2249,9 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -2154,20 +2265,26 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>142</v>
+        <v>157</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2180,23 +2297,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>80</v>
       </c>
@@ -2206,7 +2323,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2214,7 +2331,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2234,7 +2351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>81</v>
       </c>
@@ -2244,7 +2361,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>115</v>
       </c>
@@ -2254,9 +2371,9 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/code/数据库设计/数据字典.xlsx
+++ b/code/数据库设计/数据字典.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F89BE96-9D6C-4F0A-A9F2-B724C2F49207}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B126369-FD98-4233-9C3A-0A18CC4AEBE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="City" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="165">
   <si>
     <t>数据名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -675,6 +675,18 @@
   </si>
   <si>
     <t>（ 主将（统帅*10+武力*8+智力*6）+副将1（统帅*8+武力*6+智力*4）+副将1（统帅*6+武力*4+智力*2） ）*兵力，比较，返回大的一方的军队ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityConnCityID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联通城市ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -720,7 +732,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -743,6 +755,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -750,13 +773,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1040,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1250,91 +1274,102 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" t="s">
-        <v>136</v>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F18" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F19" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F20" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2021,7 +2056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>

--- a/code/数据库设计/数据字典.xlsx
+++ b/code/数据库设计/数据字典.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B126369-FD98-4233-9C3A-0A18CC4AEBE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACA9DBC-47F0-49E3-BC8D-45C0D96B7A7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -777,10 +777,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1079,22 +1079,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1278,10 +1278,10 @@
       <c r="A14" t="s">
         <v>162</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1406,22 +1406,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1668,22 +1668,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1826,22 +1826,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2070,22 +2070,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2233,22 +2233,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2349,22 +2349,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">

--- a/code/数据库设计/数据字典.xlsx
+++ b/code/数据库设计/数据字典.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACA9DBC-47F0-49E3-BC8D-45C0D96B7A7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A5732C-A0E5-4458-BFDE-8C75E625A9B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="City" sheetId="1" r:id="rId1"/>
@@ -184,10 +184,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>武将状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Faction表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -687,6 +683,10 @@
   </si>
   <si>
     <t>联通城市ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武将状态，0为忙碌，1为空闲</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1064,7 +1064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -1179,12 +1179,12 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -1193,12 +1193,12 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -1207,12 +1207,12 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -1221,12 +1221,12 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
@@ -1276,101 +1276,101 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" t="s">
         <v>135</v>
-      </c>
-      <c r="F16" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" t="s">
         <v>137</v>
-      </c>
-      <c r="F18" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -1393,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1402,7 +1402,8 @@
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1463,7 +1464,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -1481,7 +1482,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -1492,12 +1493,12 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -1513,7 +1514,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -1529,7 +1530,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -1545,7 +1546,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -1561,7 +1562,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
@@ -1577,7 +1578,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
@@ -1595,10 +1596,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -1606,40 +1607,40 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>38</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1669,7 +1670,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1725,7 +1726,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -1743,7 +1744,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -1756,12 +1757,12 @@
         <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -1774,29 +1775,29 @@
         <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1827,7 +1828,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1865,7 +1866,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1875,15 +1876,15 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -1893,51 +1894,51 @@
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -1951,7 +1952,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -1965,7 +1966,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
@@ -1979,68 +1980,68 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2072,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2109,102 +2110,102 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2234,7 +2235,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2272,7 +2273,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -2286,7 +2287,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -2297,15 +2298,15 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2313,10 +2314,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2350,7 +2351,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2388,7 +2389,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2398,7 +2399,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2408,7 +2409,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
